--- a/Excel/amplify.xlsx
+++ b/Excel/amplify.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parimal\Documents\GitHub\audacity-mr\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425AEF76-D4E0-4043-8E58-66EF36A5823B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -109,98 +115,98 @@
     <t>|&lt; Effect Menu</t>
   </si>
   <si>
-    <t>विस्तारित करा - ऑडसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>शक्ती वाढवणे</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
     <t>येथे जा: सुचालन, शोध</t>
   </si>
   <si>
-    <t>निवडलेल्या ऑडिओ ट्रॅकचे व्हॉल्यूम बदलण्यासाठी एम्प्लिफाई इफेक्ट वापरा. एम्प्लिफाई नेहमी ट्रॅक आणि / किंवा चॅनेलचे संबंधित खंड जतन करते.</t>
-  </si>
-  <si>
-    <t>निवडीच्या सद्य शिखर पातळीचा द्रुत धनादेश म्हणून आपण एम्प्लिफाई मधील "एम्प्लिफिकेशन (डीबी)" बॉक्स देखील वापरू शकता.</t>
-  </si>
-  <si>
     <t>याद्वारे प्रवेश केलेले: प्रभाव&gt; विस्तारित करा ...</t>
   </si>
   <si>
-    <t>जेव्हा एम्प्लिफा डायलॉग प्रथम दिसेल तेव्हा ते एम्प्लीफिकेशन (डीबी) बॉक्समध्ये 0 डीबीची नवीन पीक एम्प्लिट्यूड तयार करण्यासाठी आवश्यक प्रवर्धनाची रक्कम दर्शविते, अशा प्रकारे निवडलेल्या ट्रॅकची मात्रा वाढवते. हे आपले लक्ष्य असल्यास आपण फक्त ओके बटणावर क्लिक करू शकता. लक्षात घ्या की जेव्हा एकाच स्टिरिओ ट्रॅकवर किंवा एकाधिक ट्रॅकवर लागू केले जाते तेव्हा एम्प्लिफाईड लाउडस्ट ट्रॅक किंवा चॅनेलचा आकार वाढविण्यासाठी आवश्यक मोठेपणा दर्शवितो आणि त्या प्रमाणात लागू होईल</t>
-  </si>
-  <si>
-    <t>सर्व निवडलेल्या ट्रॅक आणि / किंवा चॅनेलमध्ये प्रवर्धन. अशाप्रकारे, एम्प्लीफा निवडलेल्या ट्रॅक आणि / किंवा चॅनेलचे संबंधित खंड जतन करते. हे सामान्यीकरण प्रभावापेक्षा भिन्न आहे जे प्रत्येक ट्रॅक किंवा चॅनेलचे स्वतंत्रपणे स्वतंत्रपणे सेट करण्यासाठी वैकल्पिकरित्या सेट केले जाऊ शकते. भिन्नतेच्या पूर्ण चर्चेसाठी, विस्तारित आणि सामान्यीकरण पहा.</t>
-  </si>
-  <si>
     <t>विस्तार (डीबी)</t>
   </si>
   <si>
-    <t>इनपुट बॉक्स: आपण लागू करू इच्छित असलेल्या एम्पलीफिकेशनच्या प्रमाणात मूल्य टाइप करा. सकारात्मक मूल्ये आवाज अधिक जोर देतात, नकारात्मक मूल्ये ती शांत करतात. आपण टाइप करताच, नवीन पीक मोठेपणा इनपुट बॉक्स अद्यतनित केला जाईल.</t>
-  </si>
-  <si>
-    <t>जर आपण एम्प्लिफिकेशन (डीबी) बॉक्समध्ये दर्शविलेल्या मूल्याचे नकारात्मक घेतले तर हे आपल्याला निवडीचे सध्याचे शिखर मोठेपणा देईल. उदाहरणार्थ, वरील प्रतिमेत ऑडिओ निवडीमध्ये पीक मोठेपणा -3 डीबी होता.</t>
-  </si>
-  <si>
-    <t>स्लाइडर: आवाज जोरात करण्यासाठी स्लाइडर उजवीकडे ड्रॅग करा किंवा अधिक शांत करण्यासाठी डावीकडे. आपण ड्रॅग करताच आपले निवडलेले मूल्य इनपुट बॉक्समध्ये अद्यतनित केले जाईल आणि नवीन पीक मोठेपणा इनपुट बॉक्स अद्यतनित केले जाईल.</t>
-  </si>
-  <si>
-    <t>नवीन पीक मोठेपणा (डीबी)</t>
-  </si>
-  <si>
-    <t>आपल्या ट्रॅकच्या नवीन पीक विशालतेसाठी आपल्यास इच्छित मूल्य टाइप करा. जसे आपण टाइप करता तसे एम्प्लिफिकेशन इनपुट बॉक्स अद्यतनित केला जाईल.</t>
-  </si>
-  <si>
-    <t>क्लिपिंगला परवानगी द्या</t>
-  </si>
-  <si>
-    <t>जर हा बॉक्स तपासला गेला नाही आणि आपण एम्प्लीफिकेशन व्हॅल्यू प्रविष्ट करण्याचा प्रयत्न केला ज्याचा परिणाम 0 डीबीपेक्षा जास्त नवीन पीक मोठेपणा होईल, तर ओके बटण निष्क्रिय होईल. हे आपल्याला जास्त प्रवर्धन करण्यापासून प्रतिबंधित करते.</t>
-  </si>
-  <si>
-    <t>जर हा बॉक्स चेक केला असेल तर आपण इच्छित तितके प्रवर्धन लागू करू शकता, शक्यतो एक अत्यंत विकृत ध्वनी तयार करा.</t>
-  </si>
-  <si>
     <t>बटणे</t>
   </si>
   <si>
-    <t>कमांड बटणावर क्लिक केल्याने खालील परिणाम मिळतात:</t>
-  </si>
-  <si>
-    <t>व्यवस्थापित करा ड्रॉपडाउन मेनू आपल्याला साधनाचे प्रीसेट सेट करण्यास आणि टूलबद्दल काही तपशील पाहण्यास सक्षम करते. तपशीलांसाठी प्रीसेट्स व्यवस्थापित करा पहा</t>
-  </si>
-  <si>
-    <t>पूर्वावलोकन ऑडिओमध्ये वास्तविक बदल न करता, प्रभाव वर्तमान सेटिंग्जसह लागू केल्यास ऑडिओला काय वाटेल हे एक लहान पूर्वावलोकन प्ले करते.</t>
-  </si>
-  <si>
-    <t>पूर्वावलोकनाची लांबी संपादन&gt; प्राधान्ये&gt; प्लेबॅक मधील आपल्या सेटिंगद्वारे निश्चित केली जाते, डीफॉल्ट सेटिंग 6 सेकंद असते.</t>
-  </si>
-  <si>
-    <t>ठीक आहे सध्याच्या प्रभाव सेटिंग्जसह निवडलेल्या ऑडिओवर प्रभाव लागू करते आणि संवाद बंद करते</t>
-  </si>
-  <si>
-    <t>रद्द करा प्रभाव सोडतो आणि संवाद बंद केल्यामुळे ऑडिओमध्ये कोणताही बदल होत नाही</t>
-  </si>
-  <si>
-    <t>या पृष्ठावरील मॅन्युअलमध्ये आपल्याला योग्य पृष्ठावर आणते</t>
-  </si>
-  <si>
     <t>दुवे</t>
   </si>
   <si>
     <t>| &lt;प्रभाव, जनरेटर आणि विश्लेषकांचे अनुक्रमणिका</t>
   </si>
   <si>
-    <t>| &lt;प्रभाव मेनू</t>
+    <t>विस्तारित करा</t>
+  </si>
+  <si>
+    <t>विस्तारित करा - ओड्यासिटी माहितीपुस्तिका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहितीपुस्तिकेवरुन</t>
+  </si>
+  <si>
+    <t>निवडलेल्या ध्वनी गीतपट्टाचे आवाज बदलण्यासाठी विस्तारित प्रभाव वापरा. विस्तारित नेहमी गीतपट्टा आणि / किंवा वाहिनीचे संबंधित खंड जतन करते.</t>
+  </si>
+  <si>
+    <t>निवडीच्या सद्य शिखर पातळीचा द्रुत धनादेश म्हणून आपण विस्तारित मधील "प्रवर्धन (डीबी)" बॉक्स देखील वापरू शकता.</t>
+  </si>
+  <si>
+    <t>सर्व निवडलेल्या गीतपट्टा आणि / किंवा वाहिनीमध्ये प्रवर्धन. अशाप्रकारे, विस्तारित निवडलेल्या गीतपट्टा आणि / किंवा वाहिनीचे संबंधित खंड जतन करते. हे सामान्यीकरण प्रभावापेक्षा भिन्न आहे जे प्रत्येक गीतपट्टा किंवा वाहिनीचे स्वतंत्रपणे स्वतंत्रपणे स्थापित करण्यासाठी वैकल्पिकरित्या स्थापित केले जाऊ शकते. भिन्नतेच्या पूर्ण चर्चेसाठी, विस्तारित आणि सामान्यीकरण पहा.</t>
+  </si>
+  <si>
+    <t>घसरपट्टी: आवाज जोरात करण्यासाठी घसरपट्टी उजवीकडे ड्रॅग करा किंवा अधिक शांत करण्यासाठी डावीकडे. आपण ड्रॅग करताच आपले निवडलेले मूल्य माहिती पुरवा बॉक्समध्ये अद्यतनित केले जाईल आणि नवीन उच्च मोठेपणा माहिती पुरवा बॉक्स अद्यतनित केले जाईल.</t>
+  </si>
+  <si>
+    <t>नवीन उच्च मोठेपणा (डीबी)</t>
+  </si>
+  <si>
+    <t>आपल्या गीतपट्टाच्या नवीन उच्च विशालतेसाठी आपल्यास इच्छित मूल्य टाइप करा. जसे आपण टाइप करता तसे प्रवर्धन माहिती पुरवा बॉक्स अद्यतनित केला जाईल.</t>
+  </si>
+  <si>
+    <t>फीतला परवानगी द्या</t>
+  </si>
+  <si>
+    <t>जर हा बॉक्स तपासला गेला नाही आणि आपण प्रवर्धन मूल्य प्रविष्ट करण्याचा प्रयत्न केला ज्याचा परिणाम ० डीबीपेक्षा जास्त नवीन उच्च मोठेपणा होईल, तर ठीक बटण निष्क्रिय होईल. हे आपल्याला जास्त प्रवर्धन करण्यापासून प्रतिबंधित करते.</t>
+  </si>
+  <si>
+    <t>जर हा बॉक्स तपास केला असेल तर आपण इच्छित तितके प्रवर्धन लागू करू शकता, शक्यतो एक अत्यंत विकृत ध्वनी तयार करा.</t>
+  </si>
+  <si>
+    <t>आज्ञा बटणावर क्लिक केल्याने खालील परिणाम मिळतात:</t>
+  </si>
+  <si>
+    <t>व्यवस्थापित करा ड्रॉपडाउन यादी आपल्याला साधनाचे प्रीसेट स्थापित करण्यास आणि साधनेबद्दल काही तपशील पाहण्यास सक्षम करते. तपशीलांसाठी प्रीसेट्स व्यवस्थापित करा पहा</t>
+  </si>
+  <si>
+    <t>पूर्वावलोकन ध्वनीमध्ये वास्तविक बदल न करता, प्रभाव वर्तमान समायोजनसह लागू केल्यास ध्वनीला काय वाटेल हे एक लहान पूर्वावलोकन चालू करते.</t>
+  </si>
+  <si>
+    <t>पूर्वावलोकनाची लांबी संपादन&gt; प्राधान्ये&gt; प्लेबॅक मधील आपल्या समायोजनद्वारे निश्चित केली जाते, पूर्वनियोजित समायोजन ६ सेकंद असते.</t>
+  </si>
+  <si>
+    <t>ठीक आहे सध्याच्या प्रभाव समायोजनसह निवडलेल्या ध्वनीवर प्रभाव लागू करते आणि संवाद बंद करते</t>
+  </si>
+  <si>
+    <t>रद्द करा प्रभाव सोडतो आणि संवाद बंद केल्यामुळे ध्वनीमध्ये कोणताही बदल होत नाही</t>
+  </si>
+  <si>
+    <t>या पृष्ठावरील माहितीपुस्तिकामध्ये आपल्याला योग्य पृष्ठावर आणते</t>
+  </si>
+  <si>
+    <t>| &lt;प्रभाव यादी</t>
+  </si>
+  <si>
+    <t>जेव्हा विस्तारित संवाद प्रथम दिसेल तेव्हा ते प्रवर्धन (डीबी) बॉक्समध्ये ० डीबीची नवीन उच्च विपुलता तयार करण्यासाठी आवश्यक प्रवर्धनाची रक्कम दर्शविते, अशा प्रकारे निवडलेल्या गीतपट्टाची मात्रा वाढवते. हे आपले लक्ष्य असल्यास आपण फक्त ठीक बटणावर क्लिक करू शकता. लक्षात घ्या की जेव्हा एकाच स्टिरिओ गीतपट्टावर किंवा एकाधिक गीतपट्टावर लागू केले जाते तेव्हा विस्तारित सर्वात मोठा आवाज गीतपट्टा किंवा वाहिनीचा आकार वाढविण्यासाठी आवश्यक मोठेपणा दर्शवितो आणि त्या प्रमाणात लागू होईल</t>
+  </si>
+  <si>
+    <t>माहिती पुरवा बॉक्स: आपण लागू करू इच्छित असलेल्या प्रवर्धनच्या प्रमाणात मूल्य टाइप करा. सकारात्मक मूल्ये आवाज अधिक जोर देतात, नकारात्मक मूल्ये ती शांत करतात. आपण टाइप करताच, नवीन उच्च मोठेपणा माहिती पुरवा बॉक्स अद्यतनित केला जाईल.</t>
+  </si>
+  <si>
+    <t>जर आपण प्रवर्धन (डीबी) बॉक्समध्ये दर्शविलेल्या मूल्याचे नकारात्मक घेतले तर हे आपल्याला निवडीचे सध्याचे शिखर मोठेपणा देईल. उदाहरणार्थ, वरील प्रतिमेत ध्वनी निवडीमध्ये उच्च मोठेपणा -३ डीबी होता.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,10 +258,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -263,6 +275,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -309,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,9 +361,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,6 +413,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,338 +606,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="81.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="91.77734375" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>59</v>
+      <c r="C30" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
